--- a/document/DB定義書_A1.xlsx
+++ b/document/DB定義書_A1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A-1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2EEA1F-C6A9-4B73-AB5A-FDDAB372AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78940A53-AADE-4FF6-B111-2F210127A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -296,18 +296,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -496,6 +484,13 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複なし</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -990,7 +985,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1372,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,23 +1496,25 @@
         <v>32</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar(15) (15),</v>
+        <v>user_id varchar (15),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1531,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
@@ -1539,13 +1536,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_pw varchar(15) (15),</v>
+        <v>user_pw varchar (15),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1567,13 +1564,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>name varchar(20) (20),</v>
+        <v>name varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1587,7 +1584,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -1595,13 +1592,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>class varchar(10) (10),</v>
+        <v>class varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1615,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -1623,13 +1620,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>position varchar(10) (10),</v>
+        <v>position varchar (10),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1643,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1651,7 +1648,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -1926,7 +1923,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,25 +2047,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="11">
         <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2082,13 +2079,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="11">
         <v>10</v>
@@ -2097,7 +2094,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" s="11"/>
       <c r="L11" s="8" t="str">
@@ -2110,13 +2107,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="11">
         <v>1000</v>
@@ -2136,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="11">
         <v>10</v>
@@ -2150,7 +2147,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -2164,13 +2161,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="11">
         <v>10</v>
@@ -2178,7 +2175,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -2192,13 +2189,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="11">
         <v>5</v>
@@ -2206,7 +2203,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2220,13 +2217,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11">
         <v>100</v>
@@ -2246,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="11">
         <v>15</v>
@@ -2260,11 +2257,11 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2502,7 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8842363-F852-4FD1-A0A6-495DB233022E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2627,25 +2624,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2659,13 +2656,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="17">
         <v>1000</v>
@@ -2685,13 +2682,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="17">
         <v>100</v>
@@ -2711,13 +2708,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="17">
         <v>10</v>
@@ -2725,11 +2722,11 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13" s="8" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2741,13 +2738,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="19">
         <v>15</v>
@@ -2755,11 +2752,11 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L14" s="8" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/document/DB定義書_A1.xlsx
+++ b/document/DB定義書_A1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A-1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78940A53-AADE-4FF6-B111-2F210127A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766E191-BB4B-41D0-B861-86D454E8B6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -491,6 +491,13 @@
     <t>重複なし</t>
     <rPh sb="0" eb="2">
       <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶井ももか</t>
+    <rPh sb="0" eb="2">
+      <t>カジイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1368,7 +1375,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1922,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC76E67-D62E-447D-9031-BC5845E8CD13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,7 +1995,9 @@
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
@@ -1997,12 +2006,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="15">
+        <v>44358</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
@@ -2039,7 +2050,7 @@
       </c>
       <c r="L9" s="14" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table User (</v>
+        <v>create table Question (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2492,6 +2503,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2499,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8842363-F852-4FD1-A0A6-495DB233022E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,7 +2577,9 @@
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
@@ -2574,12 +2588,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="15">
+        <v>44358</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
@@ -2616,7 +2632,7 @@
       </c>
       <c r="L9" s="14" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table User (</v>
+        <v>create table Answer (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">

--- a/document/DB定義書_A1.xlsx
+++ b/document/DB定義書_A1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\A-1\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766E191-BB4B-41D0-B861-86D454E8B6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22761A-7760-4342-AEF5-946DBF7EF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -498,6 +498,26 @@
     <t>梶井ももか</t>
     <rPh sb="0" eb="2">
       <t>カジイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問情報テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答情報テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1374,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1929,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC76E67-D62E-447D-9031-BC5845E8CD13}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1990,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -2511,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8842363-F852-4FD1-A0A6-495DB233022E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2572,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
